--- a/authentication/uploads/generated_file.xlsx
+++ b/authentication/uploads/generated_file.xlsx
@@ -476,7 +476,7 @@
         <v>-1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">

--- a/authentication/uploads/generated_file.xlsx
+++ b/authentication/uploads/generated_file.xlsx
@@ -476,7 +476,7 @@
         <v>-1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">

--- a/authentication/uploads/generated_file.xlsx
+++ b/authentication/uploads/generated_file.xlsx
@@ -536,12 +536,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>047875881990</t>
+          <t>B0BDHWDR12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(Switch)Crash  Bandicoot</t>
+          <t>AirPods Pro Andrés PRUEBA</t>
         </is>
       </c>
       <c r="C7" t="n">
